--- a/Images/P&L.xlsx
+++ b/Images/P&L.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://newcastle.sharepoint.com/sites/DissertationProject773-HarveyYuan/Shared Documents/Harvey Yuan/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harvey\IdeaProjects\CSC_8639_3.8\Images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="463" documentId="11_E5B34475ADAA7228C14447CC19F180D22C73F02E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C147175A-A355-4EA8-96FA-04E8DA92396B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{764D4347-563A-4090-907E-301EE7281500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51600" yWindow="-2325" windowWidth="16200" windowHeight="14400" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23366" yWindow="0" windowWidth="23366" windowHeight="19562" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IFRS" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="56">
   <si>
     <t>Turnover</t>
   </si>
@@ -258,6 +258,12 @@
   </si>
   <si>
     <t>Net Earnings</t>
+  </si>
+  <si>
+    <t>Gross Profit [682] Operating(loss)/profit</t>
+  </si>
+  <si>
+    <t>Operating(loss)/profit [903] (Loss)/profit before tax</t>
   </si>
 </sst>
 </file>
@@ -307,12 +313,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -368,7 +380,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -415,16 +427,25 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -441,10 +462,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -750,17 +767,17 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" customWidth="1"/>
-    <col min="7" max="7" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="31.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.375" customWidth="1"/>
+    <col min="4" max="4" width="7.625" customWidth="1"/>
+    <col min="5" max="5" width="24.375" customWidth="1"/>
+    <col min="6" max="6" width="7.625" customWidth="1"/>
+    <col min="7" max="7" width="24.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12">
@@ -775,7 +792,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>39</v>
       </c>
@@ -791,7 +808,7 @@
         <v>91220</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="14.95" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>40</v>
       </c>
@@ -807,7 +824,7 @@
         <v>57840</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="14.95" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>51</v>
       </c>
@@ -824,7 +841,7 @@
         <v>3216</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="14.95" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>41</v>
       </c>
@@ -843,14 +860,14 @@
         <v>152276</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="14.95" x14ac:dyDescent="0.25">
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="14.95" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>47</v>
       </c>
@@ -860,7 +877,7 @@
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="14.95" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>43</v>
       </c>
@@ -876,7 +893,7 @@
         <v>12184</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="14.95" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>42</v>
       </c>
@@ -892,7 +909,7 @@
         <v>39351</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="14.95" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>44</v>
       </c>
@@ -908,7 +925,7 @@
         <v>35977</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="14.95" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>45</v>
       </c>
@@ -927,7 +944,7 @@
         <v>11030</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="14.95" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>46</v>
       </c>
@@ -940,7 +957,7 @@
         <v>10487</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="14.95" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>48</v>
       </c>
@@ -957,7 +974,7 @@
         <v>47336</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="14.95" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>49</v>
       </c>
@@ -977,7 +994,7 @@
         <v>156365</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="14.95" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
@@ -985,7 +1002,7 @@
       <c r="F18" s="20"/>
       <c r="G18" s="20"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="14.95" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>50</v>
       </c>
@@ -1004,7 +1021,7 @@
         <v>-4089</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="14.95" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>52</v>
       </c>
@@ -1020,7 +1037,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="14.95" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
         <v>53</v>
       </c>
@@ -1051,207 +1068,196 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5A42EA-217A-40CA-AB9B-0095BE7B3E96}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="92.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.25" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="2">
         <v>2018</v>
       </c>
-      <c r="D1" s="3">
+      <c r="C1" s="3">
         <v>2017</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="29">
-        <v>4544418</v>
-      </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26">
-        <v>5014890</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="33">
+        <v>4591518</v>
+      </c>
+      <c r="C5" s="26">
+        <v>5109862</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="30">
-        <v>-641709</v>
-      </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="27">
-        <v>-662196</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="29"/>
+      <c r="B6" s="34">
+        <v>-638127</v>
+      </c>
+      <c r="C6" s="27">
+        <v>-801102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="28"/>
       <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="29">
-        <v>390709</v>
-      </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26">
-        <v>4352694</v>
-      </c>
+      <c r="B8" s="30">
+        <f>B5+B6</f>
+        <v>3953391</v>
+      </c>
+      <c r="C8" s="30">
+        <f>C5+C6</f>
+        <v>4308760</v>
+      </c>
+      <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="29"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="28"/>
       <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="29">
-        <v>-3219971</v>
-      </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26">
-        <v>-3734210</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="33">
+        <v>-3310011</v>
+      </c>
+      <c r="C10" s="26">
+        <v>-3749281</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="30">
-        <v>377700</v>
-      </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="27">
-        <v>430563</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="29"/>
+      <c r="B11" s="34">
+        <v>365813</v>
+      </c>
+      <c r="C11" s="27">
+        <v>420192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="28"/>
       <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="29">
-        <v>1060438</v>
-      </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26">
-        <v>1049047</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="30">
+        <f>B8+B10+B11</f>
+        <v>1009193</v>
+      </c>
+      <c r="C13" s="30">
+        <f>C8+C10+C11</f>
+        <v>979671</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="29"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:5" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="30">
-        <v>566803</v>
-      </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="29"/>
+      <c r="B15" s="34">
+        <v>577803</v>
+      </c>
+      <c r="C15" s="27">
+        <v>600101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="28"/>
       <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="29">
-        <v>1627241</v>
-      </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26">
-        <v>1049047</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="30">
+        <f>B13+B15</f>
+        <v>1586996</v>
+      </c>
+      <c r="C17" s="30">
+        <f>C13+C15</f>
+        <v>1579772</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="29"/>
+      <c r="B18" s="28"/>
       <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:3" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="30">
-        <v>-156651</v>
-      </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="27">
-        <v>400190</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="29"/>
+      <c r="B19" s="34">
+        <v>-149941</v>
+      </c>
+      <c r="C19" s="27">
+        <v>-200190</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="28"/>
       <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:3" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="30">
-        <v>1470590</v>
-      </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="27">
-        <v>1449237</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="31">
+        <f>B17+B19</f>
+        <v>1437055</v>
+      </c>
+      <c r="C21" s="31">
+        <f>C17+C19</f>
+        <v>1379582</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1261,22 +1267,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D8A3A4E-5842-4D21-86FB-C54CE88EF082}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.75" customWidth="1"/>
+    <col min="6" max="6" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="2">
         <v>2018</v>
       </c>
@@ -1284,7 +1291,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1292,171 +1299,197 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="29">
-        <v>4544418</v>
+      <c r="B5" s="33">
+        <v>4591518</v>
       </c>
       <c r="C5" s="26">
-        <v>5014890</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>5109862</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="30">
-        <v>-641709</v>
+      <c r="B6" s="34">
+        <v>-638127</v>
       </c>
       <c r="C6" s="27">
-        <v>-662196</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="29"/>
+        <v>-801102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="28"/>
       <c r="C7" s="26"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="29">
+      <c r="B8" s="30">
         <f>B5+B6</f>
-        <v>3902709</v>
-      </c>
-      <c r="C8" s="1">
+        <v>3953391</v>
+      </c>
+      <c r="C8" s="30">
         <f>C5+C6</f>
-        <v>4352694</v>
+        <v>4308760</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="29"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="28"/>
       <c r="C9" s="26"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="29">
-        <v>-3219971</v>
+      <c r="B10" s="33">
+        <v>-3310011</v>
       </c>
       <c r="C10" s="26">
-        <v>-3734210</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>-3749281</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="30">
-        <v>377700</v>
+      <c r="B11" s="34">
+        <v>365813</v>
       </c>
       <c r="C11" s="27">
-        <v>430563</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="29"/>
+        <v>420192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="57.1" x14ac:dyDescent="0.25">
+      <c r="B12" s="28"/>
       <c r="C12" s="26"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="29">
+      <c r="B13" s="30">
         <f>B8+B10+B11</f>
-        <v>1060438</v>
-      </c>
-      <c r="C13" s="26">
+        <v>1009193</v>
+      </c>
+      <c r="C13" s="30">
         <f>C8+C10+C11</f>
-        <v>1049047</v>
-      </c>
-      <c r="E13" s="31">
+        <v>979671</v>
+      </c>
+      <c r="E13" s="29">
         <f>B13-B11</f>
-        <v>682738</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>643380</v>
+      </c>
+      <c r="F13" s="29">
+        <f>C13-C11</f>
+        <v>559479</v>
+      </c>
+      <c r="G13" s="29"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="29"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="26"/>
     </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="30">
-        <v>566803</v>
+      <c r="B15" s="34">
+        <v>577803</v>
       </c>
       <c r="C15" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="29"/>
+        <v>600101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="28"/>
       <c r="C16" s="26"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="29">
-        <v>1627241</v>
-      </c>
-      <c r="C17" s="26">
-        <v>1049047</v>
-      </c>
-      <c r="E17" s="31">
-        <f>B13+B19+B15</f>
-        <v>1470590</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="30">
+        <f>B13+B15</f>
+        <v>1586996</v>
+      </c>
+      <c r="C17" s="30">
+        <f>C13+C15</f>
+        <v>1579772</v>
+      </c>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+    </row>
+    <row r="18" spans="1:7" ht="71.349999999999994" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="29"/>
+      <c r="B18" s="28"/>
       <c r="C18" s="26"/>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="30">
-        <v>-156651</v>
+      <c r="B19" s="34">
+        <v>-149941</v>
       </c>
       <c r="C19" s="27">
-        <v>400190</v>
-      </c>
-      <c r="E19" s="31">
+        <v>-200190</v>
+      </c>
+      <c r="E19" s="29">
         <f>B17+B19-B15</f>
-        <v>903787</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="29"/>
+        <v>859252</v>
+      </c>
+      <c r="F19" s="29">
+        <f>C17+C19-C15</f>
+        <v>779481</v>
+      </c>
+      <c r="G19" s="29"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="28"/>
       <c r="C20" s="26"/>
     </row>
-    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="30">
-        <v>1470590</v>
-      </c>
-      <c r="C21" s="27">
-        <v>1449237</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="31">
+        <f>B17+B19</f>
+        <v>1437055</v>
+      </c>
+      <c r="C21" s="31">
+        <f>C17+C19</f>
+        <v>1379582</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
     </row>
@@ -1474,13 +1507,13 @@
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="24.8" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="68.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="68.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="24.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
@@ -1491,15 +1524,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="24.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
     </row>
-    <row r="3" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="24.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="24.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
@@ -1510,7 +1543,7 @@
         <v>45099</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="24.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>14</v>
       </c>
@@ -1521,7 +1554,7 @@
         <v>45099</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="24.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
@@ -1532,15 +1565,15 @@
         <v>45152</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="24.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
     </row>
-    <row r="8" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="24.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="24.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>17</v>
       </c>
@@ -1551,7 +1584,7 @@
         <v>45089</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="24.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>19</v>
       </c>
@@ -1562,7 +1595,7 @@
         <v>45089</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="24.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>18</v>
       </c>
@@ -1573,15 +1606,15 @@
         <v>45093</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="24.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
     </row>
-    <row r="13" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="24.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="24.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>21</v>
       </c>
@@ -1592,7 +1625,7 @@
         <v>45093</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="24.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>22</v>
       </c>
@@ -1603,7 +1636,7 @@
         <v>45121</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="24.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>23</v>
       </c>
@@ -1614,15 +1647,15 @@
         <v>45121</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="24.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
     </row>
-    <row r="18" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="24.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="24.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>25</v>
       </c>
@@ -1633,7 +1666,7 @@
         <v>45135</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="24.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>26</v>
       </c>
@@ -1644,35 +1677,35 @@
         <v>45135</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="24.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="24.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="24.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="24.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="24.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
     </row>
-    <row r="26" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="24.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="24.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>32</v>
       </c>
@@ -1683,7 +1716,7 @@
         <v>45065</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="24.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>33</v>
       </c>
@@ -1694,7 +1727,7 @@
         <v>45086</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="24.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>34</v>
       </c>
@@ -1705,7 +1738,7 @@
         <v>45140</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="24.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>35</v>
       </c>
@@ -1716,7 +1749,7 @@
         <v>45153</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="24.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>36</v>
       </c>
@@ -1740,12 +1773,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003DE5F474DCF23349A633DD72F69A429D" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="10045d84b301a38891f4553b97c9a711">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0659c35d-84e2-4685-b7c4-ce67ddf41397" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5fe3cc0e410531aafd183f78380180af" ns2:_="">
     <xsd:import namespace="0659c35d-84e2-4685-b7c4-ce67ddf41397"/>
@@ -1883,6 +1910,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64C25097-45D5-43C8-98ED-53B839CF8A12}">
   <ds:schemaRefs>
@@ -1892,6 +1925,24 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF7F1DD8-74B7-479F-A824-CDC159071E51}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="0659c35d-84e2-4685-b7c4-ce67ddf41397"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD17A6D9-BEA4-48A3-9969-6B33D122FB18}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -1905,8 +1956,4 @@
     <ds:schemaRef ds:uri="0659c35d-84e2-4685-b7c4-ce67ddf41397"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF7F1DD8-74B7-479F-A824-CDC159071E51}"/>
 </file>
--- a/Images/P&L.xlsx
+++ b/Images/P&L.xlsx
@@ -8,16 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harvey\IdeaProjects\CSC_8639_3.8\Images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{764D4347-563A-4090-907E-301EE7281500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F893585-B361-4BAA-97E0-B3BB305A533B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23366" yWindow="0" windowWidth="23366" windowHeight="19562" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="46950" windowHeight="19780" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IFRS" sheetId="1" r:id="rId1"/>
     <sheet name="UK GAAP" sheetId="2" r:id="rId2"/>
     <sheet name="UK GAAP Sankey" sheetId="4" r:id="rId3"/>
-    <sheet name="Plan" sheetId="3" r:id="rId4"/>
+    <sheet name="UK GAAP Waterfall" sheetId="5" r:id="rId4"/>
+    <sheet name="Plan" sheetId="3" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'UK GAAP'!$A$5:$A$22</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'UK GAAP'!$B$1:$B$4</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'UK GAAP Waterfall'!$B$1:$B$4</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'UK GAAP Waterfall'!$B$5:$B$14</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'UK GAAP Waterfall'!$B$5:$B$15</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'UK GAAP Waterfall'!$A$5:$A$14</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'UK GAAP Waterfall'!$A$5:$A$15</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'UK GAAP Waterfall'!$B$1:$B$4</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">'UK GAAP Waterfall'!$B$5:$B$14</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">'UK GAAP Waterfall'!$B$5:$B$15</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'UK GAAP'!$B$5:$B$22</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'UK GAAP Waterfall'!$A$5:$A$14</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'UK GAAP Waterfall'!$A$5:$A$22</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'UK GAAP Waterfall'!$C$1:$C$4</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'UK GAAP Waterfall'!$C$5:$C$14</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'UK GAAP Waterfall'!$C$5:$C$22</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'UK GAAP Waterfall'!$A$5:$A$14</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'UK GAAP Waterfall'!$A$5:$A$15</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="57">
   <si>
     <t>Turnover</t>
   </si>
@@ -264,6 +285,9 @@
   </si>
   <si>
     <t>Operating(loss)/profit [903] (Loss)/profit before tax</t>
+  </si>
+  <si>
+    <t>Cost of sales</t>
   </si>
 </sst>
 </file>
@@ -453,6 +477,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFB9EEA5"/>
+      <color rgb="FFF3BCC7"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -462,6 +492,1493 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.13</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.16</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>2018</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>2018</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="waterfall" uniqueId="{38383433-2DDA-47BB-B0B2-101EAFB626DD}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.15</cx:f>
+              <cx:v>2018 £</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataPt idx="1">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="F3BCC7"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataPt idx="3">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="F3BCC7"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataPt idx="4">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="B9EEA5"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataPt idx="6">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="B9EEA5"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataPt idx="8">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="F3BCC7"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataLabels pos="outEnd">
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility connectorLines="1"/>
+            <cx:subtotals>
+              <cx:idx val="0"/>
+              <cx:idx val="2"/>
+              <cx:idx val="5"/>
+              <cx:idx val="7"/>
+              <cx:idx val="9"/>
+            </cx:subtotals>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0.699999988"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.3</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.6</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>2017</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>2017</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="waterfall" uniqueId="{2115813C-906A-4A75-9029-2C05B0C85871}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:v>2017 £</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataPt idx="1">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="F3BCC7"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataPt idx="3">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="F3BCC7"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataPt idx="4">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="B9EEA5"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataPt idx="6">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="B9EEA5"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataPt idx="8">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="F3BCC7"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataLabels pos="outEnd">
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility connectorLines="1"/>
+            <cx:subtotals>
+              <cx:idx val="0"/>
+              <cx:idx val="2"/>
+              <cx:idx val="5"/>
+              <cx:idx val="7"/>
+              <cx:idx val="9"/>
+            </cx:subtotals>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0.5"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="395">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="395">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>86263</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>174779</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DB9637C-1FFE-8CF4-BAD5-2056FF997E3B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4896427" y="0"/>
+              <a:ext cx="8871330" cy="5290243"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>8624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>258793</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>103516</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Chart 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9767A962-D160-8F4F-F191-B82C24D23F7F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4891177" y="5486398"/>
+              <a:ext cx="9049110" cy="6072997"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1070,8 +2587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5A42EA-217A-40CA-AB9B-0095BE7B3E96}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1269,8 +2786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D8A3A4E-5842-4D21-86FB-C54CE88EF082}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1310,9 +2827,11 @@
         <v>0</v>
       </c>
       <c r="B5" s="33">
+        <f>'UK GAAP'!B5</f>
         <v>4591518</v>
       </c>
       <c r="C5" s="26">
+        <f>'UK GAAP'!C5</f>
         <v>5109862</v>
       </c>
     </row>
@@ -1321,9 +2840,11 @@
         <v>2</v>
       </c>
       <c r="B6" s="34">
+        <f>'UK GAAP'!B6</f>
         <v>-638127</v>
       </c>
       <c r="C6" s="27">
+        <f>'UK GAAP'!C6</f>
         <v>-801102</v>
       </c>
     </row>
@@ -1356,9 +2877,11 @@
         <v>4</v>
       </c>
       <c r="B10" s="33">
+        <f>'UK GAAP'!B10</f>
         <v>-3310011</v>
       </c>
       <c r="C10" s="26">
+        <f>'UK GAAP'!C10</f>
         <v>-3749281</v>
       </c>
     </row>
@@ -1367,9 +2890,11 @@
         <v>5</v>
       </c>
       <c r="B11" s="34">
+        <f>'UK GAAP'!B11</f>
         <v>365813</v>
       </c>
       <c r="C11" s="27">
+        <f>'UK GAAP'!C11</f>
         <v>420192</v>
       </c>
     </row>
@@ -1415,9 +2940,11 @@
         <v>10</v>
       </c>
       <c r="B15" s="34">
+        <f>'UK GAAP'!B15</f>
         <v>577803</v>
       </c>
       <c r="C15" s="27">
+        <f>'UK GAAP'!C15</f>
         <v>600101</v>
       </c>
     </row>
@@ -1457,9 +2984,11 @@
         <v>8</v>
       </c>
       <c r="B19" s="34">
+        <f>'UK GAAP'!B19</f>
         <v>-149941</v>
       </c>
       <c r="C19" s="27">
+        <f>'UK GAAP'!C19</f>
         <v>-200190</v>
       </c>
       <c r="E19" s="29">
@@ -1500,6 +3029,176 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE48AF4B-E7A8-4C3F-956E-E572CF9DA209}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V18" sqref="V18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.25" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C1" s="3">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="33">
+        <v>4591518</v>
+      </c>
+      <c r="C5" s="26">
+        <v>5109862</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="34">
+        <v>-638127</v>
+      </c>
+      <c r="C6" s="27">
+        <v>-801102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="30">
+        <f>B5+B6</f>
+        <v>3953391</v>
+      </c>
+      <c r="C7" s="30">
+        <f>C5+C6</f>
+        <v>4308760</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="33">
+        <v>-3310011</v>
+      </c>
+      <c r="C8" s="26">
+        <v>-3749281</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="34">
+        <v>365813</v>
+      </c>
+      <c r="C9" s="27">
+        <v>420192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="30">
+        <f>B7+B8+B9</f>
+        <v>1009193</v>
+      </c>
+      <c r="C10" s="30">
+        <f>C7+C8+C9</f>
+        <v>979671</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="34">
+        <v>577803</v>
+      </c>
+      <c r="C11" s="27">
+        <v>600101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="30">
+        <f>B10+B11</f>
+        <v>1586996</v>
+      </c>
+      <c r="C12" s="30">
+        <f>C10+C11</f>
+        <v>1579772</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="34">
+        <v>-149941</v>
+      </c>
+      <c r="C13" s="27">
+        <v>-200190</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="31">
+        <f>B12+B13</f>
+        <v>1437055</v>
+      </c>
+      <c r="C14" s="31">
+        <f>C12+C13</f>
+        <v>1379582</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BF8FB26-8DEF-4F13-8E02-811C3AA17652}">
   <dimension ref="A1:C31"/>
   <sheetViews>
@@ -1764,12 +3463,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1911,15 +3607,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64C25097-45D5-43C8-98ED-53B839CF8A12}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD17A6D9-BEA4-48A3-9969-6B33D122FB18}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="0659c35d-84e2-4685-b7c4-ce67ddf41397"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1943,17 +3650,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD17A6D9-BEA4-48A3-9969-6B33D122FB18}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64C25097-45D5-43C8-98ED-53B839CF8A12}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="0659c35d-84e2-4685-b7c4-ce67ddf41397"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Images/P&L.xlsx
+++ b/Images/P&L.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harvey\IdeaProjects\CSC_8639_3.8\Images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F893585-B361-4BAA-97E0-B3BB305A533B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A245036-9CF4-46ED-8EB5-38564487894D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="46950" windowHeight="19780" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,24 +20,15 @@
     <sheet name="Plan" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'UK GAAP'!$A$5:$A$22</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'UK GAAP'!$B$1:$B$4</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'UK GAAP Waterfall'!$B$1:$B$4</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'UK GAAP Waterfall'!$B$5:$B$14</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'UK GAAP Waterfall'!$B$5:$B$15</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'UK GAAP Waterfall'!$A$5:$A$14</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'UK GAAP Waterfall'!$A$5:$A$15</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'UK GAAP Waterfall'!$B$1:$B$4</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'UK GAAP Waterfall'!$B$5:$B$14</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">'UK GAAP Waterfall'!$B$5:$B$15</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'UK GAAP'!$B$5:$B$22</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'UK GAAP Waterfall'!$A$5:$A$14</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'UK GAAP Waterfall'!$B$1:$B$4</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'UK GAAP Waterfall'!$B$5:$B$14</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">'UK GAAP Waterfall'!$A$5:$A$14</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'UK GAAP Waterfall'!$A$5:$A$22</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'UK GAAP Waterfall'!$C$1:$C$4</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'UK GAAP Waterfall'!$C$5:$C$14</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'UK GAAP Waterfall'!$C$5:$C$22</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'UK GAAP Waterfall'!$A$5:$A$14</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'UK GAAP Waterfall'!$A$5:$A$15</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'UK GAAP Waterfall'!$C$1:$C$4</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'UK GAAP Waterfall'!$C$5:$C$14</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'UK GAAP Waterfall'!$A$5:$A$14</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'UK GAAP Waterfall'!$B$1:$B$4</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'UK GAAP Waterfall'!$B$5:$B$14</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -499,10 +490,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.13</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.16</cx:f>
+        <cx:f>_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -540,7 +531,7 @@
         <cx:series layoutId="waterfall" uniqueId="{38383433-2DDA-47BB-B0B2-101EAFB626DD}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.15</cx:f>
+              <cx:f>_xlchart.v1.7</cx:f>
               <cx:v>2018 £</cx:v>
             </cx:txData>
           </cx:tx>
@@ -596,7 +587,7 @@
         </cx:series>
       </cx:plotAreaRegion>
       <cx:axis id="0">
-        <cx:catScaling gapWidth="0.699999988"/>
+        <cx:catScaling gapWidth="0.5"/>
         <cx:tickLabels/>
       </cx:axis>
       <cx:axis id="1">
@@ -617,7 +608,7 @@
         <cx:f>_xlchart.v1.3</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.6</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -655,7 +646,7 @@
         <cx:series layoutId="waterfall" uniqueId="{2115813C-906A-4A75-9029-2C05B0C85871}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:f>_xlchart.v1.4</cx:f>
               <cx:v>2017 £</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1830,10 +1821,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>86263</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>174779</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>278238</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>91834</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -1870,7 +1861,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="4896427" y="0"/>
-              <a:ext cx="8871330" cy="5290243"/>
+              <a:ext cx="7200000" cy="7200000"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1902,16 +1893,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>8624</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>8626</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>258793</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>103516</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>376506</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>91834</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -1947,8 +1938,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4891177" y="5486398"/>
-              <a:ext cx="9049110" cy="6072997"/>
+              <a:off x="12447917" y="0"/>
+              <a:ext cx="7200000" cy="7200000"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3033,7 +3024,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V18" sqref="V18"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -3463,9 +3454,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3607,26 +3601,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD17A6D9-BEA4-48A3-9969-6B33D122FB18}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64C25097-45D5-43C8-98ED-53B839CF8A12}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="0659c35d-84e2-4685-b7c4-ce67ddf41397"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3650,9 +3633,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64C25097-45D5-43C8-98ED-53B839CF8A12}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD17A6D9-BEA4-48A3-9969-6B33D122FB18}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="0659c35d-84e2-4685-b7c4-ce67ddf41397"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Images/P&L.xlsx
+++ b/Images/P&L.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harvey\IdeaProjects\CSC_8639_3.8\Images\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harvey/IdeaProjects/CSC_8639_3.8/Images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A245036-9CF4-46ED-8EB5-38564487894D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDECA0CD-C34C-924C-9BCC-24F603E7A12B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="46950" windowHeight="19780" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IFRS" sheetId="1" r:id="rId1"/>
@@ -26,9 +26,6 @@
     <definedName name="_xlchart.v1.3" hidden="1">'UK GAAP Waterfall'!$A$5:$A$14</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">'UK GAAP Waterfall'!$C$1:$C$4</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">'UK GAAP Waterfall'!$C$5:$C$14</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'UK GAAP Waterfall'!$A$5:$A$14</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'UK GAAP Waterfall'!$B$1:$B$4</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'UK GAAP Waterfall'!$B$5:$B$14</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -286,12 +283,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="###,##0.00;\(###,##0.00\)"/>
-    <numFmt numFmtId="165" formatCode="###,##0;\(###,##0\)"/>
-    <numFmt numFmtId="166" formatCode="#,#00;\(#,#00\)"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="###,##0.00;\(###,##0.00\)"/>
+    <numFmt numFmtId="168" formatCode="###,##0;\(###,##0\)"/>
+    <numFmt numFmtId="169" formatCode="#,#00;\(#,#00\)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -393,14 +390,14 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -417,10 +414,10 @@
       <alignment horizontal="left" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="4"/>
     </xf>
@@ -428,39 +425,50 @@
       <alignment horizontal="left" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="4"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -490,10 +498,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.6</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.8</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -531,7 +539,7 @@
         <cx:series layoutId="waterfall" uniqueId="{38383433-2DDA-47BB-B0B2-101EAFB626DD}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.7</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>2018 £</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1860,8 +1868,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4896427" y="0"/>
-              <a:ext cx="7200000" cy="7200000"/>
+              <a:off x="5402750" y="0"/>
+              <a:ext cx="7791388" cy="7584834"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1881,7 +1889,7 @@
             <a:p>
               <a:r>
                 <a:rPr lang="en-GB" sz="1100"/>
-                <a:t>This chart isn't available in your version of Excel.
+                <a:t>This chart isn’t available in your version of Excel.
 Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
               </a:r>
             </a:p>
@@ -1938,8 +1946,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="12447917" y="0"/>
-              <a:ext cx="7200000" cy="7200000"/>
+              <a:off x="13597626" y="0"/>
+              <a:ext cx="7771980" cy="7584834"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1959,7 +1967,7 @@
             <a:p>
               <a:r>
                 <a:rPr lang="en-GB" sz="1100"/>
-                <a:t>This chart isn't available in your version of Excel.
+                <a:t>This chart isn’t available in your version of Excel.
 Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
               </a:r>
             </a:p>
@@ -2275,17 +2283,17 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.375" customWidth="1"/>
-    <col min="4" max="4" width="7.625" customWidth="1"/>
-    <col min="5" max="5" width="24.375" customWidth="1"/>
-    <col min="6" max="6" width="7.625" customWidth="1"/>
-    <col min="7" max="7" width="24.375" customWidth="1"/>
+    <col min="1" max="1" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" customWidth="1"/>
+    <col min="7" max="7" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:7" ht="15.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12">
@@ -2300,7 +2308,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.8" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>39</v>
       </c>
@@ -2316,7 +2324,7 @@
         <v>91220</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>40</v>
       </c>
@@ -2332,7 +2340,7 @@
         <v>57840</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
         <v>51</v>
       </c>
@@ -2349,7 +2357,7 @@
         <v>3216</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
         <v>41</v>
       </c>
@@ -2368,14 +2376,14 @@
         <v>152276</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:7" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>47</v>
       </c>
@@ -2385,7 +2393,7 @@
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
     </row>
-    <row r="11" spans="1:7" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>43</v>
       </c>
@@ -2401,7 +2409,7 @@
         <v>12184</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
         <v>42</v>
       </c>
@@ -2417,7 +2425,7 @@
         <v>39351</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>44</v>
       </c>
@@ -2433,7 +2441,7 @@
         <v>35977</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>45</v>
       </c>
@@ -2452,7 +2460,7 @@
         <v>11030</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>46</v>
       </c>
@@ -2465,7 +2473,7 @@
         <v>10487</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
         <v>48</v>
       </c>
@@ -2482,7 +2490,7 @@
         <v>47336</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="22" t="s">
         <v>49</v>
       </c>
@@ -2502,7 +2510,7 @@
         <v>156365</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="17"/>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
@@ -2510,7 +2518,7 @@
       <c r="F18" s="20"/>
       <c r="G18" s="20"/>
     </row>
-    <row r="19" spans="1:7" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>50</v>
       </c>
@@ -2529,7 +2537,7 @@
         <v>-4089</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>52</v>
       </c>
@@ -2545,7 +2553,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="24" t="s">
         <v>53</v>
       </c>
@@ -2576,196 +2584,198 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5A42EA-217A-40CA-AB9B-0095BE7B3E96}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="G9:K30"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M39" sqref="M39"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C8" zoomScale="211" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.25" customWidth="1"/>
-    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="6" width="8.83203125" style="35"/>
+    <col min="7" max="7" width="31.1640625" style="35" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" style="37" customWidth="1"/>
+    <col min="10" max="10" width="9.83203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.83203125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="2">
+    <row r="9" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="H9" s="36">
         <v>2018</v>
       </c>
-      <c r="C1" s="3">
+      <c r="I9" s="37">
         <v>2017</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+    <row r="10" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="H10" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="I10" s="37" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="11" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="H11" s="36"/>
+    </row>
+    <row r="12" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="H12" s="36"/>
+    </row>
+    <row r="13" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G13" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="33">
+      <c r="H13" s="33">
         <v>4591518</v>
       </c>
-      <c r="C5" s="26">
+      <c r="I13" s="38">
         <v>5109862</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="14" spans="7:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G14" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="34">
+      <c r="H14" s="34">
         <v>-638127</v>
       </c>
-      <c r="C6" s="27">
+      <c r="I14" s="39">
         <v>-801102</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="28"/>
-      <c r="C7" s="26"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="15" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="H15" s="33"/>
+      <c r="I15" s="38"/>
+    </row>
+    <row r="16" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G16" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="30">
-        <f>B5+B6</f>
+      <c r="H16" s="33">
+        <f>H13+H14</f>
         <v>3953391</v>
       </c>
-      <c r="C8" s="30">
-        <f>C5+C6</f>
+      <c r="I16" s="33">
+        <f>I13+I14</f>
         <v>4308760</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="28"/>
-      <c r="C9" s="26"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+    </row>
+    <row r="17" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="H17" s="33"/>
+      <c r="I17" s="38"/>
+    </row>
+    <row r="18" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G18" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="33">
+      <c r="H18" s="33">
         <v>-3310011</v>
       </c>
-      <c r="C10" s="26">
+      <c r="I18" s="38">
         <v>-3749281</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="19" spans="7:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G19" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="34">
+      <c r="H19" s="34">
         <v>365813</v>
       </c>
-      <c r="C11" s="27">
+      <c r="I19" s="39">
         <v>420192</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="28"/>
-      <c r="C12" s="26"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="20" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="H20" s="33"/>
+      <c r="I20" s="38"/>
+    </row>
+    <row r="21" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G21" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="30">
-        <f>B8+B10+B11</f>
+      <c r="H21" s="33">
+        <f>H16+H18+H19</f>
         <v>1009193</v>
       </c>
-      <c r="C13" s="30">
-        <f>C8+C10+C11</f>
+      <c r="I21" s="33">
+        <f>I16+I18+I19</f>
         <v>979671</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="26"/>
-    </row>
-    <row r="15" spans="1:5" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="22" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G22" s="36"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="38"/>
+    </row>
+    <row r="23" spans="7:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G23" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="34">
+      <c r="H23" s="34">
         <v>577803</v>
       </c>
-      <c r="C15" s="27">
+      <c r="I23" s="39">
         <v>600101</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="28"/>
-      <c r="C16" s="26"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="24" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="H24" s="33"/>
+      <c r="I24" s="38"/>
+    </row>
+    <row r="25" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G25" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="30">
-        <f>B13+B15</f>
+      <c r="H25" s="33">
+        <f>H21+H23</f>
         <v>1586996</v>
       </c>
-      <c r="C17" s="30">
-        <f>C13+C15</f>
+      <c r="I25" s="33">
+        <f>I21+I23</f>
         <v>1579772</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="26"/>
-    </row>
-    <row r="19" spans="1:3" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="26" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G26" s="36"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="38"/>
+    </row>
+    <row r="27" spans="7:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G27" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="34">
+      <c r="H27" s="34">
         <v>-149941</v>
       </c>
-      <c r="C19" s="27">
+      <c r="I27" s="39">
         <v>-200190</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="28"/>
-      <c r="C20" s="26"/>
-    </row>
-    <row r="21" spans="1:3" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+    <row r="28" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="H28" s="33"/>
+      <c r="I28" s="38"/>
+    </row>
+    <row r="29" spans="7:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G29" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="31">
-        <f>B17+B19</f>
+      <c r="H29" s="34">
+        <f>H25+H27</f>
         <v>1437055</v>
       </c>
-      <c r="C21" s="31">
-        <f>C17+C19</f>
+      <c r="I29" s="34">
+        <f>I25+I27</f>
         <v>1379582</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
+    <row r="30" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2781,17 +2791,16 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.75" customWidth="1"/>
-    <col min="6" max="6" width="16.625" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" s="2">
         <v>2018</v>
       </c>
@@ -2799,7 +2808,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2807,43 +2816,43 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="33">
-        <f>'UK GAAP'!B5</f>
+        <f>'UK GAAP'!H13</f>
         <v>4591518</v>
       </c>
       <c r="C5" s="26">
-        <f>'UK GAAP'!C5</f>
+        <f>'UK GAAP'!I13</f>
         <v>5109862</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="34">
-        <f>'UK GAAP'!B6</f>
+        <f>'UK GAAP'!H14</f>
         <v>-638127</v>
       </c>
       <c r="C6" s="27">
-        <f>'UK GAAP'!C6</f>
+        <f>'UK GAAP'!I14</f>
         <v>-801102</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" s="28"/>
       <c r="C7" s="26"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
@@ -2859,37 +2868,37 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9" s="28"/>
       <c r="C9" s="26"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="33">
-        <f>'UK GAAP'!B10</f>
+        <f>'UK GAAP'!H18</f>
         <v>-3310011</v>
       </c>
       <c r="C10" s="26">
-        <f>'UK GAAP'!C10</f>
+        <f>'UK GAAP'!I18</f>
         <v>-3749281</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="34">
-        <f>'UK GAAP'!B11</f>
+        <f>'UK GAAP'!H19</f>
         <v>365813</v>
       </c>
       <c r="C11" s="27">
-        <f>'UK GAAP'!C11</f>
+        <f>'UK GAAP'!I19</f>
         <v>420192</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="57.1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="B12" s="28"/>
       <c r="C12" s="26"/>
       <c r="E12" s="32" t="s">
@@ -2899,7 +2908,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
@@ -2921,29 +2930,29 @@
       </c>
       <c r="G13" s="29"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="28"/>
       <c r="C14" s="26"/>
     </row>
-    <row r="15" spans="1:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="34">
-        <f>'UK GAAP'!B15</f>
+        <f>'UK GAAP'!H23</f>
         <v>577803</v>
       </c>
       <c r="C15" s="27">
-        <f>'UK GAAP'!C15</f>
+        <f>'UK GAAP'!I23</f>
         <v>600101</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B16" s="28"/>
       <c r="C16" s="26"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
@@ -2959,7 +2968,7 @@
       <c r="F17" s="29"/>
       <c r="G17" s="29"/>
     </row>
-    <row r="18" spans="1:7" ht="71.349999999999994" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="28"/>
       <c r="C18" s="26"/>
@@ -2970,16 +2979,16 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
       <c r="B19" s="34">
-        <f>'UK GAAP'!B19</f>
+        <f>'UK GAAP'!H27</f>
         <v>-149941</v>
       </c>
       <c r="C19" s="27">
-        <f>'UK GAAP'!C19</f>
+        <f>'UK GAAP'!I27</f>
         <v>-200190</v>
       </c>
       <c r="E19" s="29">
@@ -2992,11 +3001,11 @@
       </c>
       <c r="G19" s="29"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B20" s="28"/>
       <c r="C20" s="26"/>
     </row>
-    <row r="21" spans="1:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>9</v>
       </c>
@@ -3009,7 +3018,7 @@
         <v>1379582</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
     </row>
@@ -3023,20 +3032,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE48AF4B-E7A8-4C3F-956E-E572CF9DA209}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.25" customWidth="1"/>
-    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.1640625" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" s="2">
         <v>2018</v>
       </c>
@@ -3044,7 +3053,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3052,13 +3061,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -3069,7 +3078,7 @@
         <v>5109862</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>56</v>
       </c>
@@ -3080,7 +3089,7 @@
         <v>-801102</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
@@ -3095,7 +3104,7 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -3106,7 +3115,7 @@
         <v>-3749281</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -3117,7 +3126,7 @@
         <v>420192</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
@@ -3130,7 +3139,7 @@
         <v>979671</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -3141,7 +3150,7 @@
         <v>600101</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
@@ -3154,7 +3163,7 @@
         <v>1579772</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -3165,7 +3174,7 @@
         <v>-200190</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
@@ -3178,7 +3187,7 @@
         <v>1379582</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
     </row>
@@ -3197,13 +3206,13 @@
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="24.8" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="68.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="68.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
@@ -3214,15 +3223,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="24.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
     </row>
-    <row r="3" spans="1:3" ht="24.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="24.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
@@ -3233,7 +3242,7 @@
         <v>45099</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="24.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>14</v>
       </c>
@@ -3244,7 +3253,7 @@
         <v>45099</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="24.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
@@ -3255,15 +3264,15 @@
         <v>45152</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="24.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
     </row>
-    <row r="8" spans="1:3" ht="24.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="24.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>17</v>
       </c>
@@ -3274,7 +3283,7 @@
         <v>45089</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="24.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>19</v>
       </c>
@@ -3285,7 +3294,7 @@
         <v>45089</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="24.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>18</v>
       </c>
@@ -3296,15 +3305,15 @@
         <v>45093</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="24.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
     </row>
-    <row r="13" spans="1:3" ht="24.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="24.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>21</v>
       </c>
@@ -3315,7 +3324,7 @@
         <v>45093</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="24.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>22</v>
       </c>
@@ -3326,7 +3335,7 @@
         <v>45121</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="24.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>23</v>
       </c>
@@ -3337,15 +3346,15 @@
         <v>45121</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="24.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
     </row>
-    <row r="18" spans="1:3" ht="24.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="24.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>25</v>
       </c>
@@ -3356,7 +3365,7 @@
         <v>45135</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="24.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>26</v>
       </c>
@@ -3367,35 +3376,35 @@
         <v>45135</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="24.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="24.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="24.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="24.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="24.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
     </row>
-    <row r="26" spans="1:3" ht="24.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="24.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>32</v>
       </c>
@@ -3406,7 +3415,7 @@
         <v>45065</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="24.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>33</v>
       </c>
@@ -3417,7 +3426,7 @@
         <v>45086</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="24.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>34</v>
       </c>
@@ -3428,7 +3437,7 @@
         <v>45140</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="24.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>35</v>
       </c>
@@ -3439,7 +3448,7 @@
         <v>45153</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="24.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>36</v>
       </c>
@@ -3454,12 +3463,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3601,15 +3607,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64C25097-45D5-43C8-98ED-53B839CF8A12}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD17A6D9-BEA4-48A3-9969-6B33D122FB18}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="0659c35d-84e2-4685-b7c4-ce67ddf41397"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3633,17 +3650,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD17A6D9-BEA4-48A3-9969-6B33D122FB18}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64C25097-45D5-43C8-98ED-53B839CF8A12}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="0659c35d-84e2-4685-b7c4-ce67ddf41397"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Images/P&L.xlsx
+++ b/Images/P&L.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harvey/IdeaProjects/CSC_8639_3.8/Images/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harvey\IdeaProjects\CSC_8639_3.8\Images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDECA0CD-C34C-924C-9BCC-24F603E7A12B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A583AC17-E6EE-4B24-9846-8198D6238BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21390" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IFRS" sheetId="1" r:id="rId1"/>
@@ -21,11 +21,11 @@
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'UK GAAP Waterfall'!$A$5:$A$14</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'UK GAAP Waterfall'!$B$1:$B$4</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'UK GAAP Waterfall'!$B$5:$B$14</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'UK GAAP Waterfall'!$C$1:$C$4</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'UK GAAP Waterfall'!$C$5:$C$14</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">'UK GAAP Waterfall'!$A$5:$A$14</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'UK GAAP Waterfall'!$C$1:$C$4</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'UK GAAP Waterfall'!$C$5:$C$14</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'UK GAAP Waterfall'!$B$1:$B$4</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'UK GAAP Waterfall'!$B$5:$B$14</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -283,12 +283,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="###,##0.00;\(###,##0.00\)"/>
-    <numFmt numFmtId="168" formatCode="###,##0;\(###,##0\)"/>
-    <numFmt numFmtId="169" formatCode="#,#00;\(#,#00\)"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="###,##0.00;\(###,##0.00\)"/>
+    <numFmt numFmtId="165" formatCode="###,##0;\(###,##0\)"/>
+    <numFmt numFmtId="166" formatCode="#,#00;\(#,#00\)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -390,14 +390,14 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -414,10 +414,10 @@
       <alignment horizontal="left" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="4"/>
     </xf>
@@ -425,50 +425,46 @@
       <alignment horizontal="left" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="4"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -498,10 +494,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -539,7 +535,7 @@
         <cx:series layoutId="waterfall" uniqueId="{38383433-2DDA-47BB-B0B2-101EAFB626DD}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:f>_xlchart.v1.4</cx:f>
               <cx:v>2018 £</cx:v>
             </cx:txData>
           </cx:tx>
@@ -600,7 +596,6 @@
       </cx:axis>
       <cx:axis id="1">
         <cx:valScaling/>
-        <cx:majorGridlines/>
         <cx:tickLabels/>
       </cx:axis>
     </cx:plotArea>
@@ -613,10 +608,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -654,7 +649,7 @@
         <cx:series layoutId="waterfall" uniqueId="{2115813C-906A-4A75-9029-2C05B0C85871}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>2017 £</cx:v>
             </cx:txData>
           </cx:tx>
@@ -715,7 +710,6 @@
       </cx:axis>
       <cx:axis id="1">
         <cx:valScaling/>
-        <cx:majorGridlines/>
         <cx:tickLabels/>
       </cx:axis>
     </cx:plotArea>
@@ -1868,8 +1862,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5402750" y="0"/>
-              <a:ext cx="7791388" cy="7584834"/>
+              <a:off x="4729650" y="0"/>
+              <a:ext cx="6864288" cy="7568959"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1889,7 +1883,7 @@
             <a:p>
               <a:r>
                 <a:rPr lang="en-GB" sz="1100"/>
-                <a:t>This chart isn’t available in your version of Excel.
+                <a:t>This chart isn't available in your version of Excel.
 Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
               </a:r>
             </a:p>
@@ -1946,8 +1940,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="13597626" y="0"/>
-              <a:ext cx="7771980" cy="7584834"/>
+              <a:off x="11914876" y="0"/>
+              <a:ext cx="6863930" cy="7568959"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1967,7 +1961,7 @@
             <a:p>
               <a:r>
                 <a:rPr lang="en-GB" sz="1100"/>
-                <a:t>This chart isn’t available in your version of Excel.
+                <a:t>This chart isn't available in your version of Excel.
 Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
               </a:r>
             </a:p>
@@ -2283,17 +2277,17 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" customWidth="1"/>
-    <col min="7" max="7" width="24.33203125" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" customWidth="1"/>
+    <col min="7" max="7" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12">
@@ -2308,7 +2302,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>39</v>
       </c>
@@ -2324,7 +2318,7 @@
         <v>91220</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>40</v>
       </c>
@@ -2340,7 +2334,7 @@
         <v>57840</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>51</v>
       </c>
@@ -2357,7 +2351,7 @@
         <v>3216</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>41</v>
       </c>
@@ -2376,14 +2370,14 @@
         <v>152276</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>47</v>
       </c>
@@ -2393,7 +2387,7 @@
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>43</v>
       </c>
@@ -2409,7 +2403,7 @@
         <v>12184</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>42</v>
       </c>
@@ -2425,7 +2419,7 @@
         <v>39351</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>44</v>
       </c>
@@ -2441,7 +2435,7 @@
         <v>35977</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>45</v>
       </c>
@@ -2460,7 +2454,7 @@
         <v>11030</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>46</v>
       </c>
@@ -2473,7 +2467,7 @@
         <v>10487</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>48</v>
       </c>
@@ -2490,7 +2484,7 @@
         <v>47336</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>49</v>
       </c>
@@ -2510,7 +2504,7 @@
         <v>156365</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
@@ -2518,7 +2512,7 @@
       <c r="F18" s="20"/>
       <c r="G18" s="20"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>50</v>
       </c>
@@ -2537,7 +2531,7 @@
         <v>-4089</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>52</v>
       </c>
@@ -2553,7 +2547,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
         <v>53</v>
       </c>
@@ -2586,71 +2580,69 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5A42EA-217A-40CA-AB9B-0095BE7B3E96}">
   <dimension ref="G9:K30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C8" zoomScale="211" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView showGridLines="0" topLeftCell="C8" zoomScale="211" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="8.83203125" style="35"/>
-    <col min="7" max="7" width="31.1640625" style="35" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" style="37" customWidth="1"/>
-    <col min="10" max="10" width="9.83203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.83203125" style="35"/>
+    <col min="7" max="7" width="31.140625" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="H9" s="36">
+    <row r="9" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="H9" s="2">
         <v>2018</v>
       </c>
-      <c r="I9" s="37">
+      <c r="I9" s="3">
         <v>2017</v>
       </c>
     </row>
-    <row r="10" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="H10" s="36" t="s">
+    <row r="10" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="H10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I10" s="37" t="s">
+      <c r="I10" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="H11" s="36"/>
-    </row>
-    <row r="12" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="H12" s="36"/>
-    </row>
-    <row r="13" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G13" s="36" t="s">
+    <row r="11" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G13" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H13" s="33">
         <v>4591518</v>
       </c>
-      <c r="I13" s="38">
+      <c r="I13" s="35">
         <v>5109862</v>
       </c>
     </row>
-    <row r="14" spans="7:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G14" s="35" t="s">
+    <row r="14" spans="7:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G14" t="s">
         <v>2</v>
       </c>
       <c r="H14" s="34">
         <v>-638127</v>
       </c>
-      <c r="I14" s="39">
+      <c r="I14" s="36">
         <v>-801102</v>
       </c>
     </row>
-    <row r="15" spans="7:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="7:11" x14ac:dyDescent="0.25">
       <c r="H15" s="33"/>
-      <c r="I15" s="38"/>
-    </row>
-    <row r="16" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G16" s="36" t="s">
+      <c r="I15" s="35"/>
+    </row>
+    <row r="16" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G16" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H16" s="33">
@@ -2661,41 +2653,41 @@
         <f>I13+I14</f>
         <v>4308760</v>
       </c>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-    </row>
-    <row r="17" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="7:9" x14ac:dyDescent="0.25">
       <c r="H17" s="33"/>
-      <c r="I17" s="38"/>
-    </row>
-    <row r="18" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G18" s="35" t="s">
+      <c r="I17" s="35"/>
+    </row>
+    <row r="18" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
         <v>4</v>
       </c>
       <c r="H18" s="33">
         <v>-3310011</v>
       </c>
-      <c r="I18" s="38">
+      <c r="I18" s="35">
         <v>-3749281</v>
       </c>
     </row>
-    <row r="19" spans="7:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G19" s="35" t="s">
+    <row r="19" spans="7:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G19" t="s">
         <v>5</v>
       </c>
       <c r="H19" s="34">
         <v>365813</v>
       </c>
-      <c r="I19" s="39">
+      <c r="I19" s="36">
         <v>420192</v>
       </c>
     </row>
-    <row r="20" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="7:9" x14ac:dyDescent="0.25">
       <c r="H20" s="33"/>
-      <c r="I20" s="38"/>
-    </row>
-    <row r="21" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G21" s="36" t="s">
+      <c r="I20" s="35"/>
+    </row>
+    <row r="21" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G21" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H21" s="33">
@@ -2707,28 +2699,28 @@
         <v>979671</v>
       </c>
     </row>
-    <row r="22" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G22" s="36"/>
+    <row r="22" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G22" s="2"/>
       <c r="H22" s="33"/>
-      <c r="I22" s="38"/>
-    </row>
-    <row r="23" spans="7:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G23" s="35" t="s">
+      <c r="I22" s="35"/>
+    </row>
+    <row r="23" spans="7:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G23" t="s">
         <v>10</v>
       </c>
       <c r="H23" s="34">
         <v>577803</v>
       </c>
-      <c r="I23" s="39">
+      <c r="I23" s="36">
         <v>600101</v>
       </c>
     </row>
-    <row r="24" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="7:9" x14ac:dyDescent="0.25">
       <c r="H24" s="33"/>
-      <c r="I24" s="38"/>
-    </row>
-    <row r="25" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G25" s="36" t="s">
+      <c r="I24" s="35"/>
+    </row>
+    <row r="25" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G25" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H25" s="33">
@@ -2740,28 +2732,28 @@
         <v>1579772</v>
       </c>
     </row>
-    <row r="26" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G26" s="36"/>
+    <row r="26" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G26" s="2"/>
       <c r="H26" s="33"/>
-      <c r="I26" s="38"/>
-    </row>
-    <row r="27" spans="7:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G27" s="35" t="s">
+      <c r="I26" s="35"/>
+    </row>
+    <row r="27" spans="7:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G27" t="s">
         <v>8</v>
       </c>
       <c r="H27" s="34">
         <v>-149941</v>
       </c>
-      <c r="I27" s="39">
+      <c r="I27" s="36">
         <v>-200190</v>
       </c>
     </row>
-    <row r="28" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="7:9" x14ac:dyDescent="0.25">
       <c r="H28" s="33"/>
-      <c r="I28" s="38"/>
-    </row>
-    <row r="29" spans="7:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G29" s="36" t="s">
+      <c r="I28" s="35"/>
+    </row>
+    <row r="29" spans="7:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H29" s="34">
@@ -2773,9 +2765,9 @@
         <v>1379582</v>
       </c>
     </row>
-    <row r="30" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
+    <row r="30" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2791,16 +2783,16 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="2">
         <v>2018</v>
       </c>
@@ -2808,7 +2800,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2816,13 +2808,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -2835,7 +2827,7 @@
         <v>5109862</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -2848,11 +2840,11 @@
         <v>-801102</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="28"/>
       <c r="C7" s="26"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
@@ -2868,11 +2860,11 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="28"/>
       <c r="C9" s="26"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -2885,7 +2877,7 @@
         <v>-3749281</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -2898,7 +2890,7 @@
         <v>420192</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B12" s="28"/>
       <c r="C12" s="26"/>
       <c r="E12" s="32" t="s">
@@ -2908,7 +2900,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
@@ -2930,12 +2922,12 @@
       </c>
       <c r="G13" s="29"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="28"/>
       <c r="C14" s="26"/>
     </row>
-    <row r="15" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -2948,11 +2940,11 @@
         <v>600101</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="28"/>
       <c r="C16" s="26"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
@@ -2968,7 +2960,7 @@
       <c r="F17" s="29"/>
       <c r="G17" s="29"/>
     </row>
-    <row r="18" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="28"/>
       <c r="C18" s="26"/>
@@ -2979,7 +2971,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -3001,11 +2993,11 @@
       </c>
       <c r="G19" s="29"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B20" s="28"/>
       <c r="C20" s="26"/>
     </row>
-    <row r="21" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>9</v>
       </c>
@@ -3018,7 +3010,7 @@
         <v>1379582</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
     </row>
@@ -3032,20 +3024,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE48AF4B-E7A8-4C3F-956E-E572CF9DA209}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.1640625" customWidth="1"/>
-    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="2">
         <v>2018</v>
       </c>
@@ -3053,7 +3045,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3061,13 +3053,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -3078,7 +3070,7 @@
         <v>5109862</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>56</v>
       </c>
@@ -3089,7 +3081,7 @@
         <v>-801102</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
@@ -3104,7 +3096,7 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -3115,7 +3107,7 @@
         <v>-3749281</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -3126,7 +3118,7 @@
         <v>420192</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
@@ -3139,7 +3131,7 @@
         <v>979671</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -3150,7 +3142,7 @@
         <v>600101</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
@@ -3163,7 +3155,7 @@
         <v>1579772</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -3174,7 +3166,7 @@
         <v>-200190</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
@@ -3187,7 +3179,7 @@
         <v>1379582</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
     </row>
@@ -3206,13 +3198,13 @@
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="68.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="68.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
@@ -3223,15 +3215,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
     </row>
-    <row r="3" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
@@ -3242,7 +3234,7 @@
         <v>45099</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>14</v>
       </c>
@@ -3253,7 +3245,7 @@
         <v>45099</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
@@ -3264,15 +3256,15 @@
         <v>45152</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
     </row>
-    <row r="8" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>17</v>
       </c>
@@ -3283,7 +3275,7 @@
         <v>45089</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>19</v>
       </c>
@@ -3294,7 +3286,7 @@
         <v>45089</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>18</v>
       </c>
@@ -3305,15 +3297,15 @@
         <v>45093</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
     </row>
-    <row r="13" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>21</v>
       </c>
@@ -3324,7 +3316,7 @@
         <v>45093</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>22</v>
       </c>
@@ -3335,7 +3327,7 @@
         <v>45121</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>23</v>
       </c>
@@ -3346,15 +3338,15 @@
         <v>45121</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
     </row>
-    <row r="18" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>25</v>
       </c>
@@ -3365,7 +3357,7 @@
         <v>45135</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>26</v>
       </c>
@@ -3376,35 +3368,35 @@
         <v>45135</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
     </row>
-    <row r="26" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>32</v>
       </c>
@@ -3415,7 +3407,7 @@
         <v>45065</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>33</v>
       </c>
@@ -3426,7 +3418,7 @@
         <v>45086</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>34</v>
       </c>
@@ -3437,7 +3429,7 @@
         <v>45140</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>35</v>
       </c>
@@ -3448,7 +3440,7 @@
         <v>45153</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>36</v>
       </c>
@@ -3463,12 +3455,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003DE5F474DCF23349A633DD72F69A429D" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="10045d84b301a38891f4553b97c9a711">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0659c35d-84e2-4685-b7c4-ce67ddf41397" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5fe3cc0e410531aafd183f78380180af" ns2:_="">
     <xsd:import namespace="0659c35d-84e2-4685-b7c4-ce67ddf41397"/>
@@ -3606,6 +3592,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3616,22 +3608,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD17A6D9-BEA4-48A3-9969-6B33D122FB18}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="0659c35d-84e2-4685-b7c4-ce67ddf41397"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF7F1DD8-74B7-479F-A824-CDC159071E51}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3649,6 +3625,22 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD17A6D9-BEA4-48A3-9969-6B33D122FB18}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="0659c35d-84e2-4685-b7c4-ce67ddf41397"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64C25097-45D5-43C8-98ED-53B839CF8A12}">
   <ds:schemaRefs>
